--- a/Tabla4.xlsx
+++ b/Tabla4.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/CxColCardio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D226D-B843-D34A-BFF9-5B59035CF06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ingreso</t>
   </si>
@@ -25,104 +31,59 @@
     <t>Frecuencia cardiáca/min *</t>
   </si>
   <si>
-    <t>Frecuencia cardiáca CD &gt;III</t>
-  </si>
-  <si>
     <t>Frecuencia respiratoria/min CD&lt;III</t>
   </si>
   <si>
-    <t>Frecuencia respiratoria/min CD &gt;III</t>
-  </si>
-  <si>
     <t>Presión sistólica mmHg CD&lt;III</t>
   </si>
   <si>
-    <t>Presión sistólica mmHg CD&gt;III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión diastólica mmHg CD&lt;III </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión diastólica mmHg CD&gt;III </t>
-  </si>
-  <si>
-    <t>Temperatura °C CD &lt;III</t>
-  </si>
-  <si>
     <t>Temperatura °C CD &gt;III</t>
   </si>
   <si>
-    <t>Leucocitos mm3 CD &lt;III</t>
-  </si>
-  <si>
     <t>Leucocitos mm3 CD&gt;III</t>
   </si>
   <si>
-    <t>Hematocrito</t>
-  </si>
-  <si>
     <t>Hematocrito CD&gt;III</t>
   </si>
   <si>
-    <t>ADE</t>
-  </si>
-  <si>
     <t>ADE CD&gt;III</t>
   </si>
   <si>
-    <t>Plaquetas mm3</t>
-  </si>
-  <si>
     <t>Plaquetas mm3 CD&gt;III</t>
   </si>
   <si>
-    <t>AST mg/dl</t>
-  </si>
-  <si>
     <t>AST mg/dl CD&gt;III</t>
   </si>
   <si>
-    <t>ALT mg/dl</t>
-  </si>
-  <si>
     <t>ALT mg/dl CD&gt;III</t>
   </si>
   <si>
-    <t>Bilirrubina total mg/dl</t>
-  </si>
-  <si>
     <t>Bilirrubina total mg/dl CD&gt;III</t>
   </si>
   <si>
-    <t>Fosfatasa alcalina (mg/dl)</t>
-  </si>
-  <si>
-    <t>Fosfatasa alcalina (mg/dl) CD&gt;III</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
     <t>INR CD&gt;III</t>
   </si>
   <si>
-    <t>Creatinina (mg/dl)</t>
-  </si>
-  <si>
     <t>Creatinina (mg/dl) CD&gt;III</t>
   </si>
   <si>
-    <t>qSOFA</t>
-  </si>
-  <si>
     <t>qSOFA CD&gt;III</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Presión diastólica mmHg CD&gt;III </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +99,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -170,14 +144,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -185,11 +223,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +309,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +361,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,372 +554,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>81.11111111111111</v>
-      </c>
-      <c r="C2">
-        <v>76.72222222222223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="5">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>74.57142857142857</v>
-      </c>
-      <c r="C3">
-        <v>74.57142857142857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="5">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>19.83333333333333</v>
-      </c>
-      <c r="C4">
-        <v>19.77777777777778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="5">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>19.42857142857143</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>112.5555555555556</v>
-      </c>
-      <c r="C6">
-        <v>110.8333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>103.8571428571429</v>
-      </c>
-      <c r="C7">
-        <v>111.7142857142857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="5">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>67.61111111111111</v>
-      </c>
-      <c r="C8">
-        <v>70.77777777777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>63.42857142857143</v>
-      </c>
-      <c r="C9">
-        <v>70.71428571428571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="5">
+        <v>195</v>
+      </c>
+      <c r="C10" s="5">
+        <v>273</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>36.79444444444445</v>
-      </c>
-      <c r="C10">
-        <v>36.77777777777779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="5">
+        <v>107</v>
+      </c>
+      <c r="C11" s="5">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>36.41428571428572</v>
-      </c>
-      <c r="C11">
-        <v>36.54285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="5">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>11.16666666666667</v>
-      </c>
-      <c r="C12">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>11.14285714285714</v>
-      </c>
-      <c r="C13">
-        <v>16.42857142857143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>37.44444444444444</v>
-      </c>
-      <c r="C14">
-        <v>35.11111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>36.14285714285715</v>
-      </c>
-      <c r="C15">
-        <v>37.57142857142857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>12.61111111111111</v>
-      </c>
-      <c r="C16">
-        <v>13.05555555555556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>12.57142857142857</v>
-      </c>
-      <c r="C17">
-        <v>15.14285714285714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>204.4444444444445</v>
-      </c>
-      <c r="C18">
-        <v>238.7222222222222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>167</v>
-      </c>
-      <c r="C19">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>331.6666666666667</v>
-      </c>
-      <c r="C20">
-        <v>55.33333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>107.2857142857143</v>
-      </c>
-      <c r="C21">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>195.3333333333333</v>
-      </c>
-      <c r="C22">
-        <v>114.7222222222222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>46.71428571428572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>1.327777777777778</v>
-      </c>
-      <c r="C24">
-        <v>1.093333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1.21</v>
-      </c>
-      <c r="C25">
-        <v>1.481428571428571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>117.8333333333333</v>
-      </c>
-      <c r="C26">
-        <v>72.77777777777777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>60.14285714285715</v>
-      </c>
-      <c r="C27">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>1.933888888888889</v>
-      </c>
-      <c r="C28">
-        <v>1.336666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>1.401428571428572</v>
-      </c>
-      <c r="C29">
-        <v>1.338571428571429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1.151666666666667</v>
-      </c>
-      <c r="C30">
-        <v>1.643333333333334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0.6657142857142857</v>
-      </c>
-      <c r="C31">
-        <v>2.218571428571429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="C32">
-        <v>0.2777777777777778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C33">
-        <v>0.4285714285714285</v>
-      </c>
+      <c r="B16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
